--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_5_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_5_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-255910.3940712565</v>
+        <v>-257991.135464556</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2365544.372062216</v>
+        <v>2365544.372062214</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>196.3193098422673</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G2" t="n">
-        <v>244.5627323611424</v>
+        <v>230.9755459965887</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
         <v>10.69576364311372</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.529210588981318</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>13.2486950844678</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>137.081565665098</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>135.1613884042816</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>232.7942200427988</v>
+        <v>173.714183862116</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852153</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>-1.27897692436818e-13</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>213.4321575753432</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.2901838672354</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.795757385798301</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.9143862661342</v>
+        <v>13.91438626613414</v>
       </c>
       <c r="H8" t="n">
-        <v>325.2563498869366</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>177.3830154996371</v>
       </c>
       <c r="T8" t="n">
-        <v>217.0183419716299</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.715653425195228</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>11.45967713857542</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1221,7 +1221,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.6006837567287</v>
@@ -1230,7 +1230,7 @@
         <v>105.061237389684</v>
       </c>
       <c r="I9" t="n">
-        <v>63.82100898789184</v>
+        <v>63.82100898789181</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>54.0370021256323</v>
+        <v>54.03700212563224</v>
       </c>
       <c r="S9" t="n">
         <v>157.8853663825613</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>195.7686910855676</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>49.3295832922356</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>149.2915415772896</v>
+        <v>149.2915415772895</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>178.3850475803251</v>
       </c>
       <c r="T10" t="n">
-        <v>134.6254146869861</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2850602706034</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>57.4095565686226</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>42.18007463019048</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>167.3087929269624</v>
       </c>
       <c r="X16" t="n">
-        <v>64.02545868683379</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.39974023749668</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>284.4177725193113</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>29.06239247952526</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>137.7082705740696</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.7286447371837</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>27.41809099151104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.5127428246837</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.5632668609405</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>179.519724440751</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T25" t="n">
-        <v>203.146475515537</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>267.8362668557251</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809757</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X25" t="n">
-        <v>207.3085698461849</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,13 +2612,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.019962480079</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205253</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246838</v>
+        <v>130.5127428246837</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.5632668609405</v>
+        <v>91.5632668609404</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T28" t="n">
-        <v>203.146475515537</v>
+        <v>203.1464755155368</v>
       </c>
       <c r="U28" t="n">
-        <v>267.8362668557251</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V28" t="n">
-        <v>53.33002336944183</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092425</v>
+        <v>157.524471758686</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037169</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.019962480079</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205253</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.5127428246838</v>
+        <v>80.27375167670614</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141971</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.5632668609405</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>179.519724440751</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T31" t="n">
-        <v>203.146475515537</v>
+        <v>203.1464755155368</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X31" t="n">
-        <v>70.44126431505609</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>722.7372794047155</v>
+      </c>
+      <c r="C2" t="n">
+        <v>722.7372794047155</v>
+      </c>
+      <c r="D2" t="n">
+        <v>722.7372794047155</v>
+      </c>
+      <c r="E2" t="n">
+        <v>722.7372794047155</v>
+      </c>
+      <c r="F2" t="n">
         <v>475.7042164136626</v>
       </c>
-      <c r="C2" t="n">
-        <v>475.7042164136626</v>
-      </c>
-      <c r="D2" t="n">
-        <v>475.7042164136626</v>
-      </c>
-      <c r="E2" t="n">
-        <v>475.7042164136626</v>
-      </c>
-      <c r="F2" t="n">
-        <v>277.4018832396552</v>
-      </c>
       <c r="G2" t="n">
-        <v>30.36882024860223</v>
+        <v>242.3955840938761</v>
       </c>
       <c r="H2" t="n">
-        <v>30.36882024860223</v>
+        <v>242.3955840938761</v>
       </c>
       <c r="I2" t="n">
         <v>30.36882024860223</v>
@@ -4373,7 +4373,7 @@
         <v>722.7372794047155</v>
       </c>
       <c r="Y2" t="n">
-        <v>475.7042164136626</v>
+        <v>722.7372794047155</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.4994282501427</v>
+        <v>139.4522261876119</v>
       </c>
       <c r="C3" t="n">
-        <v>168.4994282501427</v>
+        <v>139.4522261876119</v>
       </c>
       <c r="D3" t="n">
-        <v>19.56501858889139</v>
+        <v>139.4522261876119</v>
       </c>
       <c r="E3" t="n">
-        <v>19.56501858889139</v>
+        <v>139.4522261876119</v>
       </c>
       <c r="F3" t="n">
-        <v>19.56501858889139</v>
+        <v>139.4522261876119</v>
       </c>
       <c r="G3" t="n">
-        <v>19.56501858889139</v>
+        <v>139.4522261876119</v>
       </c>
       <c r="H3" t="n">
-        <v>19.56501858889139</v>
+        <v>26.16018079998364</v>
       </c>
       <c r="I3" t="n">
         <v>19.56501858889139</v>
@@ -4410,16 +4410,16 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>146.1858617037014</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L3" t="n">
-        <v>377.8476075409625</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="M3" t="n">
-        <v>619.9647125784935</v>
+        <v>261.6821236264224</v>
       </c>
       <c r="N3" t="n">
-        <v>723.7203651970593</v>
+        <v>481.6032601595283</v>
       </c>
       <c r="O3" t="n">
         <v>723.7203651970593</v>
@@ -4437,22 +4437,22 @@
         <v>804.9818487541377</v>
       </c>
       <c r="T3" t="n">
-        <v>791.5993284667965</v>
+        <v>602.8274275453307</v>
       </c>
       <c r="U3" t="n">
-        <v>791.5993284667965</v>
+        <v>374.6043344193546</v>
       </c>
       <c r="V3" t="n">
-        <v>791.5993284667965</v>
+        <v>139.4522261876119</v>
       </c>
       <c r="W3" t="n">
-        <v>544.5662654757435</v>
+        <v>139.4522261876119</v>
       </c>
       <c r="X3" t="n">
-        <v>336.7147652702107</v>
+        <v>139.4522261876119</v>
       </c>
       <c r="Y3" t="n">
-        <v>336.7147652702107</v>
+        <v>139.4522261876119</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
         <v>19.56501858889139</v>
@@ -4504,34 +4504,34 @@
         <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="R4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="S4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="T4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="U4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="V4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="W4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>267.2890251781155</v>
+        <v>207.6122209552035</v>
       </c>
       <c r="C5" t="n">
-        <v>267.2890251781155</v>
+        <v>207.6122209552035</v>
       </c>
       <c r="D5" t="n">
-        <v>267.2890251781155</v>
+        <v>207.6122209552035</v>
       </c>
       <c r="E5" t="n">
-        <v>267.2890251781155</v>
+        <v>207.6122209552035</v>
       </c>
       <c r="F5" t="n">
-        <v>260.3435244289121</v>
+        <v>200.666720206</v>
       </c>
       <c r="G5" t="n">
-        <v>25.19784761800419</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19784761800419</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800419</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142361</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098024</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369329</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O5" t="n">
-        <v>950.137187388514</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806667</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S5" t="n">
-        <v>1052.968135806666</v>
+        <v>698.4535282668868</v>
       </c>
       <c r="T5" t="n">
-        <v>1052.968135806666</v>
+        <v>473.5132653508267</v>
       </c>
       <c r="U5" t="n">
-        <v>799.0911139693611</v>
+        <v>473.5132653508267</v>
       </c>
       <c r="V5" t="n">
-        <v>799.0911139693611</v>
+        <v>473.5132653508267</v>
       </c>
       <c r="W5" t="n">
-        <v>799.0911139693611</v>
+        <v>473.5132653508267</v>
       </c>
       <c r="X5" t="n">
-        <v>799.0911139693611</v>
+        <v>207.6122209552035</v>
       </c>
       <c r="Y5" t="n">
-        <v>533.1900695737384</v>
+        <v>207.6122209552035</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.05936271613333</v>
+        <v>361.204544883074</v>
       </c>
       <c r="C6" t="n">
-        <v>21.05936271613333</v>
+        <v>361.204544883074</v>
       </c>
       <c r="D6" t="n">
-        <v>21.05936271613333</v>
+        <v>361.204544883074</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613333</v>
+        <v>361.204544883074</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613333</v>
+        <v>361.204544883074</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K6" t="n">
-        <v>154.3302328992135</v>
+        <v>154.3302328992136</v>
       </c>
       <c r="L6" t="n">
-        <v>154.3302328992135</v>
+        <v>154.3302328992136</v>
       </c>
       <c r="M6" t="n">
-        <v>264.2940185443781</v>
+        <v>414.9398465113638</v>
       </c>
       <c r="N6" t="n">
-        <v>524.903632156528</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="O6" t="n">
-        <v>785.3166962490201</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P6" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="S6" t="n">
-        <v>880.4795283993074</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="T6" t="n">
-        <v>880.4795283993074</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="U6" t="n">
-        <v>652.2591996415122</v>
+        <v>726.6826938902486</v>
       </c>
       <c r="V6" t="n">
-        <v>652.2591996415122</v>
+        <v>726.6826938902486</v>
       </c>
       <c r="W6" t="n">
-        <v>436.6711616866201</v>
+        <v>726.6826938902486</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8196614810873</v>
+        <v>529.4198819031421</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.05936271613333</v>
+        <v>529.4198819031421</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="C7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="D7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="E7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="F7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="G7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360296</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N7" t="n">
-        <v>150.0877739486497</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="X7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2321.572219486583</v>
+        <v>1588.990047883617</v>
       </c>
       <c r="C8" t="n">
-        <v>1952.609702546172</v>
+        <v>1220.027530943205</v>
       </c>
       <c r="D8" t="n">
-        <v>1594.344003939421</v>
+        <v>861.761832336455</v>
       </c>
       <c r="E8" t="n">
-        <v>1208.555751341177</v>
+        <v>475.9735797382107</v>
       </c>
       <c r="F8" t="n">
-        <v>797.5698465515695</v>
+        <v>64.98767494860313</v>
       </c>
       <c r="G8" t="n">
-        <v>379.4745068888076</v>
+        <v>50.93273932624541</v>
       </c>
       <c r="H8" t="n">
-        <v>50.93273932624538</v>
+        <v>50.93273932624541</v>
       </c>
       <c r="I8" t="n">
-        <v>50.93273932624538</v>
+        <v>50.93273932624541</v>
       </c>
       <c r="J8" t="n">
         <v>155.7591739168711</v>
       </c>
       <c r="K8" t="n">
-        <v>433.6116301659918</v>
+        <v>433.6116301659922</v>
       </c>
       <c r="L8" t="n">
-        <v>830.5887990800943</v>
+        <v>830.5887990800949</v>
       </c>
       <c r="M8" t="n">
-        <v>1288.908934281618</v>
+        <v>1288.908934281619</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.013170883838</v>
+        <v>1740.013170883839</v>
       </c>
       <c r="O8" t="n">
-        <v>2120.790471866538</v>
+        <v>2120.790471866539</v>
       </c>
       <c r="P8" t="n">
-        <v>2408.100705753527</v>
+        <v>2408.100705753528</v>
       </c>
       <c r="Q8" t="n">
-        <v>2546.636966312269</v>
+        <v>2546.63696631227</v>
       </c>
       <c r="R8" t="n">
-        <v>2546.636966312269</v>
+        <v>2546.63696631227</v>
       </c>
       <c r="S8" t="n">
-        <v>2546.636966312269</v>
+        <v>2367.462203181324</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.426519876279</v>
+        <v>2367.462203181324</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.426519876279</v>
+        <v>2367.462203181324</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.426519876279</v>
+        <v>2367.462203181324</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.426519876279</v>
+        <v>2367.462203181324</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.426519876279</v>
+        <v>2365.729219923551</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.426519876279</v>
+        <v>1975.589887947739</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>842.1262495713564</v>
+        <v>988.6608075444714</v>
       </c>
       <c r="C9" t="n">
-        <v>667.6732202902294</v>
+        <v>814.2077782633444</v>
       </c>
       <c r="D9" t="n">
-        <v>518.7388106289782</v>
+        <v>665.2733686020931</v>
       </c>
       <c r="E9" t="n">
-        <v>359.5013556235226</v>
+        <v>506.0359135966377</v>
       </c>
       <c r="F9" t="n">
         <v>359.5013556235226</v>
@@ -4878,55 +4878,55 @@
         <v>115.3984049705806</v>
       </c>
       <c r="I9" t="n">
-        <v>50.93273932624538</v>
+        <v>50.93273932624541</v>
       </c>
       <c r="J9" t="n">
-        <v>119.6732659524492</v>
+        <v>50.93273932624541</v>
       </c>
       <c r="K9" t="n">
-        <v>363.7826179014332</v>
+        <v>295.0420912752297</v>
       </c>
       <c r="L9" t="n">
-        <v>753.4221628487735</v>
+        <v>684.6816362225702</v>
       </c>
       <c r="M9" t="n">
-        <v>1260.092355332587</v>
+        <v>1191.351828706384</v>
       </c>
       <c r="N9" t="n">
-        <v>1795.879613554694</v>
+        <v>1727.139086928491</v>
       </c>
       <c r="O9" t="n">
-        <v>2219.604602039586</v>
+        <v>2150.864075413383</v>
       </c>
       <c r="P9" t="n">
-        <v>2542.678193876169</v>
+        <v>2473.937667249967</v>
       </c>
       <c r="Q9" t="n">
-        <v>2546.636966312269</v>
+        <v>2546.63696631227</v>
       </c>
       <c r="R9" t="n">
-        <v>2492.054135882337</v>
+        <v>2492.054135882339</v>
       </c>
       <c r="S9" t="n">
-        <v>2332.573967819144</v>
+        <v>2332.573967819146</v>
       </c>
       <c r="T9" t="n">
-        <v>2133.411756930156</v>
+        <v>2133.411756930157</v>
       </c>
       <c r="U9" t="n">
-        <v>1905.237502928007</v>
+        <v>1905.237502928009</v>
       </c>
       <c r="V9" t="n">
-        <v>1670.085394696264</v>
+        <v>1670.085394696266</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.848037968063</v>
+        <v>1415.848037968065</v>
       </c>
       <c r="X9" t="n">
-        <v>1218.101885356378</v>
+        <v>1207.996537762532</v>
       </c>
       <c r="Y9" t="n">
-        <v>1010.341586591424</v>
+        <v>1000.236238997578</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.7606012375945</v>
+        <v>345.7357804065489</v>
       </c>
       <c r="C10" t="n">
-        <v>100.7606012375945</v>
+        <v>345.7357804065489</v>
       </c>
       <c r="D10" t="n">
-        <v>100.7606012375945</v>
+        <v>345.7357804065489</v>
       </c>
       <c r="E10" t="n">
-        <v>100.7606012375945</v>
+        <v>197.8226868241558</v>
       </c>
       <c r="F10" t="n">
-        <v>100.7606012375945</v>
+        <v>50.93273932624541</v>
       </c>
       <c r="G10" t="n">
-        <v>100.7606012375945</v>
+        <v>50.93273932624541</v>
       </c>
       <c r="H10" t="n">
-        <v>100.7606012375945</v>
+        <v>50.93273932624541</v>
       </c>
       <c r="I10" t="n">
-        <v>100.7606012375945</v>
+        <v>50.93273932624541</v>
       </c>
       <c r="J10" t="n">
-        <v>50.93273932624538</v>
+        <v>50.93273932624541</v>
       </c>
       <c r="K10" t="n">
-        <v>100.5165538294666</v>
+        <v>100.5165538294668</v>
       </c>
       <c r="L10" t="n">
-        <v>219.4931998867074</v>
+        <v>219.4931998867076</v>
       </c>
       <c r="M10" t="n">
-        <v>355.3265144918564</v>
+        <v>355.3265144918568</v>
       </c>
       <c r="N10" t="n">
-        <v>493.3646328999343</v>
+        <v>493.3646328999348</v>
       </c>
       <c r="O10" t="n">
-        <v>604.8488818521907</v>
+        <v>604.8488818521912</v>
       </c>
       <c r="P10" t="n">
-        <v>676.7222341011087</v>
+        <v>676.7222341011092</v>
       </c>
       <c r="Q10" t="n">
-        <v>676.7222341011087</v>
+        <v>676.7222341011092</v>
       </c>
       <c r="R10" t="n">
-        <v>525.9226971543516</v>
+        <v>525.922697154352</v>
       </c>
       <c r="S10" t="n">
-        <v>525.9226971543516</v>
+        <v>345.7357804065489</v>
       </c>
       <c r="T10" t="n">
-        <v>389.9374297937596</v>
+        <v>345.7357804065489</v>
       </c>
       <c r="U10" t="n">
-        <v>100.7606012375945</v>
+        <v>345.7357804065489</v>
       </c>
       <c r="V10" t="n">
-        <v>100.7606012375945</v>
+        <v>345.7357804065489</v>
       </c>
       <c r="W10" t="n">
-        <v>100.7606012375945</v>
+        <v>345.7357804065489</v>
       </c>
       <c r="X10" t="n">
-        <v>100.7606012375945</v>
+        <v>345.7357804065489</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.7606012375945</v>
+        <v>345.7357804065489</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,13 +5115,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
         <v>891.4406401619856</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1167.181495781369</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>877.7643257444088</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>649.7747748463914</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.9821957028613</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227915</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169047</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>330.8254548799441</v>
+        <v>906.212064528655</v>
       </c>
       <c r="X16" t="n">
-        <v>266.1532743881928</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881928</v>
+        <v>678.2225136306376</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>732.358329063101</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C19" t="n">
-        <v>563.4221461351941</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1458.108452136188</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1458.108452136188</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1458.108452136188</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1458.108452136188</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V19" t="n">
-        <v>1203.423963930301</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W19" t="n">
-        <v>914.0067938933407</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="X19" t="n">
-        <v>914.0067938933407</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="Y19" t="n">
-        <v>914.0067938933407</v>
+        <v>244.1070389581963</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.4452354807079</v>
+        <v>731.3351829786184</v>
       </c>
       <c r="C22" t="n">
-        <v>415.509052552801</v>
+        <v>562.3990000507115</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383757</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383757</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1469.560318558382</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S22" t="n">
-        <v>1469.560318558382</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T22" t="n">
-        <v>1469.560318558382</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="U22" t="n">
-        <v>1469.560318558382</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="V22" t="n">
-        <v>1214.875830352495</v>
+        <v>1248.741903913596</v>
       </c>
       <c r="W22" t="n">
-        <v>1214.875830352495</v>
+        <v>959.3247338766357</v>
       </c>
       <c r="X22" t="n">
-        <v>986.8862794544777</v>
+        <v>731.3351829786184</v>
       </c>
       <c r="Y22" t="n">
-        <v>766.0937003109476</v>
+        <v>731.3351829786184</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>556.6807806446247</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>406.3315528105081</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>378.6365114049414</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>378.6365114049414</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>378.6365114049414</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>229.0481448185522</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>127.8168586116195</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2193375436547</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L25" t="n">
-        <v>562.1484572422077</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968141</v>
+        <v>851.9322746968145</v>
       </c>
       <c r="N25" t="n">
-        <v>1140.693458411785</v>
+        <v>1140.693458411786</v>
       </c>
       <c r="O25" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P25" t="n">
         <v>1587.602350397713</v>
       </c>
       <c r="Q25" t="n">
-        <v>1644.652868057292</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R25" t="n">
-        <v>1552.164719712908</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="S25" t="n">
-        <v>1370.83166472225</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T25" t="n">
-        <v>1165.633204605547</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="U25" t="n">
-        <v>895.091520912895</v>
+        <v>1192.778129373984</v>
       </c>
       <c r="V25" t="n">
-        <v>658.9939878007983</v>
+        <v>1192.778129373984</v>
       </c>
       <c r="W25" t="n">
-        <v>388.1637728576279</v>
+        <v>921.9479144308139</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7611770534007</v>
+        <v>921.9479144308139</v>
       </c>
       <c r="Y25" t="n">
-        <v>178.7611770534007</v>
+        <v>719.7422903810741</v>
       </c>
     </row>
     <row r="26">
@@ -6221,46 +6221,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>657.2887316431784</v>
+        <v>229.0481448185523</v>
       </c>
       <c r="C28" t="n">
-        <v>506.9395038090616</v>
+        <v>229.0481448185523</v>
       </c>
       <c r="D28" t="n">
-        <v>506.9395038090616</v>
+        <v>229.0481448185523</v>
       </c>
       <c r="E28" t="n">
-        <v>506.9395038090616</v>
+        <v>229.0481448185523</v>
       </c>
       <c r="F28" t="n">
-        <v>378.6365114049415</v>
+        <v>229.0481448185523</v>
       </c>
       <c r="G28" t="n">
-        <v>229.0481448185524</v>
+        <v>229.0481448185523</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436547</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L28" t="n">
-        <v>562.1484572422075</v>
+        <v>562.148457242208</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968141</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P28" t="n">
         <v>1587.602350397713</v>
       </c>
       <c r="Q28" t="n">
-        <v>1644.652868057292</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R28" t="n">
-        <v>1552.164719712908</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.164719712908</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="T28" t="n">
-        <v>1346.966259596204</v>
+        <v>1165.633204605547</v>
       </c>
       <c r="U28" t="n">
-        <v>1076.424575903553</v>
+        <v>895.0915209128957</v>
       </c>
       <c r="V28" t="n">
-        <v>1022.555865429368</v>
+        <v>658.9939878007991</v>
       </c>
       <c r="W28" t="n">
-        <v>1022.555865429368</v>
+        <v>388.1637728576291</v>
       </c>
       <c r="X28" t="n">
-        <v>1022.555865429368</v>
+        <v>388.1637728576291</v>
       </c>
       <c r="Y28" t="n">
-        <v>820.350241379628</v>
+        <v>229.0481448185523</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,22 +6479,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
@@ -6528,25 +6528,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555215</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
         <v>1198.760773441947</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>729.2132785819269</v>
+        <v>271.2493253977866</v>
       </c>
       <c r="C31" t="n">
-        <v>729.2132785819269</v>
+        <v>271.2493253977866</v>
       </c>
       <c r="D31" t="n">
-        <v>729.2132785819269</v>
+        <v>271.2493253977866</v>
       </c>
       <c r="E31" t="n">
-        <v>599.887140093324</v>
+        <v>271.2493253977866</v>
       </c>
       <c r="F31" t="n">
-        <v>471.5841476892038</v>
+        <v>271.2493253977866</v>
       </c>
       <c r="G31" t="n">
-        <v>321.9957811028147</v>
+        <v>271.2493253977866</v>
       </c>
       <c r="H31" t="n">
-        <v>190.1647277445482</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436547</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422077</v>
+        <v>562.1484572422082</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968141</v>
+        <v>851.9322746968147</v>
       </c>
       <c r="N31" t="n">
-        <v>1140.693458411785</v>
+        <v>1140.693458411786</v>
       </c>
       <c r="O31" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q31" t="n">
-        <v>1644.652868057292</v>
+        <v>1644.652868057294</v>
       </c>
       <c r="R31" t="n">
-        <v>1552.164719712908</v>
+        <v>1644.652868057294</v>
       </c>
       <c r="S31" t="n">
-        <v>1370.83166472225</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T31" t="n">
-        <v>1165.633204605547</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U31" t="n">
-        <v>1165.633204605547</v>
+        <v>987.5796692572806</v>
       </c>
       <c r="V31" t="n">
-        <v>1165.633204605547</v>
+        <v>751.4821361451839</v>
       </c>
       <c r="W31" t="n">
-        <v>1165.633204605547</v>
+        <v>480.6519212020136</v>
       </c>
       <c r="X31" t="n">
-        <v>1094.480412368117</v>
+        <v>271.2493253977866</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.2747883183765</v>
+        <v>271.2493253977866</v>
       </c>
     </row>
     <row r="32">
@@ -6695,46 +6695,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6765,34 +6765,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6929,52 +6929,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7166,52 +7166,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,16 +7248,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
         <v>1198.760773441947</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,10 +7427,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7491,10 +7491,10 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
         <v>1198.760773441947</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7728,10 +7728,10 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555215</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
         <v>1198.760773441947</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M3" t="n">
         <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>234.0901525809383</v>
+        <v>351.4290252218879</v>
       </c>
       <c r="O3" t="n">
-        <v>140.7160931202018</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>127.806478742992</v>
+        <v>127.8064787429919</v>
       </c>
       <c r="M6" t="n">
-        <v>240.6662713124298</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N6" t="n">
-        <v>381.7094952808119</v>
+        <v>305.9561992328956</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>56.65615996040495</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>49.15850139331617</v>
+        <v>118.5933767733205</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,10 +9972,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>234.4116509503166</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503166</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>234.4116509503166</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>122.4224236133147</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23464,16 +23464,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>209.9575686936375</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>119.2142054096286</v>
       </c>
       <c r="X16" t="n">
-        <v>161.6841967022034</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>69.56461216629611</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.105225817279688</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>80.90195992426753</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>114.4293727497584</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.70224990190131</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>130.2143874753601</v>
+        <v>102.7962964838489</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0328771037169</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>127.019962480079</v>
+        <v>127.0199624800788</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205253</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.5127428246838</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141971</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.5632668609404</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>203.1464755155368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D28" t="n">
-        <v>130.2143874753601</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0328771037169</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>127.0199624800788</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>92.0181599214197</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>179.519724440751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>180.4065344115339</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937387</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>207.3085698461849</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>42.65909605055633</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557755</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D31" t="n">
-        <v>130.2143874753601</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>127.0199624800788</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>50.23899114797759</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.5632668609404</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>267.8362668557251</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809757</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937387</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>136.8673055311288</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1145266.262859801</v>
+        <v>1145266.2628598</v>
       </c>
     </row>
     <row r="12">
@@ -26314,13 +26314,13 @@
         <v>287364.6194524991</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="F2" t="n">
         <v>273720.3418163963</v>
@@ -26338,22 +26338,22 @@
         <v>277405.3932581609</v>
       </c>
       <c r="K2" t="n">
-        <v>277405.3932581609</v>
+        <v>277405.3932581608</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="N2" t="n">
         <v>287364.6194524992</v>
       </c>
       <c r="O2" t="n">
+        <v>287364.6194524991</v>
+      </c>
+      <c r="P2" t="n">
         <v>287364.6194524993</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>23645.34018189508</v>
+        <v>23645.34018189539</v>
       </c>
       <c r="D3" t="n">
-        <v>392050.2114169286</v>
+        <v>392050.2114169288</v>
       </c>
       <c r="E3" t="n">
-        <v>562418.1991553667</v>
+        <v>562418.1991553663</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428182</v>
+        <v>14720.86843428194</v>
       </c>
       <c r="J3" t="n">
         <v>63988.37154589876</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750026</v>
+        <v>4807.454491750041</v>
       </c>
       <c r="L3" t="n">
         <v>134293.178164804</v>
@@ -26399,13 +26399,13 @@
         <v>144178.0711151428</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428183</v>
+        <v>14720.86843428193</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319655.8297120242</v>
+        <v>319655.8297120241</v>
       </c>
       <c r="C4" t="n">
-        <v>312850.0144568525</v>
+        <v>312850.0144568523</v>
       </c>
       <c r="D4" t="n">
-        <v>195179.762782659</v>
+        <v>195179.7627826588</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773391</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773392</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
-        <v>42487.35768913274</v>
+        <v>42487.35768913282</v>
       </c>
       <c r="J4" t="n">
-        <v>42487.35768913275</v>
+        <v>42487.35768913283</v>
       </c>
       <c r="K4" t="n">
-        <v>42487.35768913275</v>
+        <v>42487.35768913286</v>
       </c>
       <c r="L4" t="n">
-        <v>58851.27075905439</v>
+        <v>58851.27075905447</v>
       </c>
       <c r="M4" t="n">
-        <v>58851.27075905443</v>
+        <v>58851.27075905442</v>
       </c>
       <c r="N4" t="n">
+        <v>58851.27075905442</v>
+      </c>
+      <c r="O4" t="n">
+        <v>58851.27075905444</v>
+      </c>
+      <c r="P4" t="n">
         <v>58851.27075905445</v>
-      </c>
-      <c r="O4" t="n">
-        <v>58851.27075905445</v>
-      </c>
-      <c r="P4" t="n">
-        <v>58851.27075905443</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="D5" t="n">
-        <v>79865.16362346616</v>
+        <v>79865.1636234662</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26485,28 +26485,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921868</v>
       </c>
       <c r="J5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921868</v>
       </c>
       <c r="K5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921867</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,43 +26522,43 @@
         <v>-166367.0931993642</v>
       </c>
       <c r="C6" t="n">
-        <v>-99265.14259308137</v>
+        <v>-99265.14259308168</v>
       </c>
       <c r="D6" t="n">
-        <v>-379730.5183705543</v>
+        <v>-379730.5183705545</v>
       </c>
       <c r="E6" t="n">
-        <v>-417117.666805421</v>
+        <v>-417215.1259313928</v>
       </c>
       <c r="F6" t="n">
-        <v>145300.5323499457</v>
+        <v>145203.0732239735</v>
       </c>
       <c r="G6" t="n">
-        <v>145300.5323499457</v>
+        <v>145203.0732239734</v>
       </c>
       <c r="H6" t="n">
-        <v>145300.5323499457</v>
+        <v>145203.0732239736</v>
       </c>
       <c r="I6" t="n">
-        <v>126662.8803255276</v>
+        <v>126591.7429955678</v>
       </c>
       <c r="J6" t="n">
-        <v>77395.37721391066</v>
+        <v>77324.23988395103</v>
       </c>
       <c r="K6" t="n">
-        <v>136576.2942680594</v>
+        <v>136505.1569380997</v>
       </c>
       <c r="L6" t="n">
-        <v>-3494.935291384449</v>
+        <v>-3494.935291384536</v>
       </c>
       <c r="M6" t="n">
-        <v>-13379.8282417234</v>
+        <v>-13379.82824172349</v>
       </c>
       <c r="N6" t="n">
         <v>116077.3744391375</v>
       </c>
       <c r="O6" t="n">
-        <v>130798.2428734195</v>
+        <v>130798.2428734193</v>
       </c>
       <c r="P6" t="n">
         <v>130798.2428734194</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="D3" t="n">
-        <v>345.3523731889762</v>
+        <v>345.3523731889766</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D4" t="n">
-        <v>636.6592415780672</v>
+        <v>636.6592415780676</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285228</v>
+        <v>18.40108554285242</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678837</v>
+        <v>49.73080458678824</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285229</v>
+        <v>18.40108554285241</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>19.33951979354706</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="D3" t="n">
-        <v>322.3389905021868</v>
+        <v>322.338990502187</v>
       </c>
       <c r="E3" t="n">
-        <v>485.0300322651241</v>
+        <v>485.0300322651237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>18.67930159052418</v>
+        <v>18.67930159052446</v>
       </c>
       <c r="D4" t="n">
-        <v>373.4172076264006</v>
+        <v>373.4172076264008</v>
       </c>
       <c r="E4" t="n">
-        <v>578.5544016755061</v>
+        <v>578.5544016755055</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052418</v>
+        <v>18.67930159052423</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076264006</v>
+        <v>373.4172076264008</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755059</v>
+        <v>578.5544016755058</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285228</v>
+        <v>18.40108554285242</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052418</v>
+        <v>18.67930159052446</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076264006</v>
+        <v>373.4172076264008</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755061</v>
+        <v>578.5544016755055</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>210.5567358994441</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G2" t="n">
-        <v>170.7252358559293</v>
+        <v>184.3124222204831</v>
       </c>
       <c r="H2" t="n">
         <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>141.6752062949112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,10 +27473,10 @@
         <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>82.59534845383044</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,19 +27509,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.8841819122511</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>7.132250799777182</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27555,7 +27555,7 @@
         <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>18.16967748427754</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
         <v>92.89079271141465</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>85.60728995481479</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>151.3616099323094</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>182.4160013610326</v>
+        <v>241.4960375417154</v>
       </c>
       <c r="H5" t="n">
         <v>338.5273214908784</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268022</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
         <v>199.9652070090748</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>38.26282558557642</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.48280133624206</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27789,16 +27789,16 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>161.8582038473137</v>
+        <v>2.023134740338435</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022108</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839144</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871616</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598919</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R7" t="n">
         <v>175.4274210366964</v>
@@ -27828,7 +27828,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>126.4816966381041</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.9380842776823</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>325.2563498869366</v>
       </c>
       <c r="I8" t="n">
-        <v>156.9514780432984</v>
+        <v>156.9514780432983</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>62.65809879609631</v>
+        <v>62.65809879609621</v>
       </c>
       <c r="S8" t="n">
-        <v>177.3830154996371</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.0183419716299</v>
       </c>
       <c r="U8" t="n">
         <v>251.2345848079164</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>368.0154472532738</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>155.0735065112919</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>10.00429411790986</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3682127838557</v>
@@ -28032,7 +28032,7 @@
         <v>136.7221855746495</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>49.32958329223555</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.01383490015898</v>
+        <v>34.01383490015893</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>213.1634750959351</v>
+        <v>34.77842751560996</v>
       </c>
       <c r="T10" t="n">
-        <v>90.65926301344595</v>
+        <v>225.284677700432</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2850602706034</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
     </row>
     <row r="26">
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
     </row>
     <row r="29">
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285228</v>
+        <v>18.4010855428524</v>
       </c>
     </row>
     <row r="32">
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30475,10 +30475,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30715,7 +30715,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887704</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034966</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760364</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324496</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455484</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895158</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019315</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841722</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060773</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544831</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679532</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332515</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I6" t="n">
-        <v>1.70429296312544</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246511</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750233</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688215</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430021</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418796</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104022</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522983</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210549</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605572</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523865</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047529</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281328</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166691</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L7" t="n">
-        <v>6.16985017147137</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988675</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847965</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150842</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131898</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705196</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473119</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750037</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.388351249000908</v>
+        <v>1.38835124900091</v>
       </c>
       <c r="H8" t="n">
-        <v>14.21845222883056</v>
+        <v>14.21845222883057</v>
       </c>
       <c r="I8" t="n">
-        <v>53.52441152710757</v>
+        <v>53.52441152710762</v>
       </c>
       <c r="J8" t="n">
-        <v>117.8345768198909</v>
+        <v>117.8345768198911</v>
       </c>
       <c r="K8" t="n">
-        <v>176.6034851900994</v>
+        <v>176.6034851900996</v>
       </c>
       <c r="L8" t="n">
-        <v>219.092239726711</v>
+        <v>219.0922397267113</v>
       </c>
       <c r="M8" t="n">
-        <v>243.7823312511309</v>
+        <v>243.7823312511312</v>
       </c>
       <c r="N8" t="n">
-        <v>247.7269842373547</v>
+        <v>247.726984237355</v>
       </c>
       <c r="O8" t="n">
-        <v>233.921566505102</v>
+        <v>233.9215665051022</v>
       </c>
       <c r="P8" t="n">
-        <v>199.646645045392</v>
+        <v>199.6466450453922</v>
       </c>
       <c r="Q8" t="n">
-        <v>149.9263159405469</v>
+        <v>149.9263159405471</v>
       </c>
       <c r="R8" t="n">
-        <v>87.21101914505337</v>
+        <v>87.21101914505347</v>
       </c>
       <c r="S8" t="n">
-        <v>31.63705408660823</v>
+        <v>31.63705408660826</v>
       </c>
       <c r="T8" t="n">
-        <v>6.077507592501479</v>
+        <v>6.077507592501486</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1110680999200726</v>
+        <v>0.1110680999200728</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7428334064819487</v>
+        <v>0.7428334064819496</v>
       </c>
       <c r="H9" t="n">
-        <v>7.174206846812506</v>
+        <v>7.174206846812514</v>
       </c>
       <c r="I9" t="n">
-        <v>25.57562386352324</v>
+        <v>25.57562386352327</v>
       </c>
       <c r="J9" t="n">
-        <v>70.18146670626167</v>
+        <v>70.18146670626174</v>
       </c>
       <c r="K9" t="n">
-        <v>119.9513049405522</v>
+        <v>119.9513049405524</v>
       </c>
       <c r="L9" t="n">
-        <v>161.2893324030214</v>
+        <v>161.2893324030216</v>
       </c>
       <c r="M9" t="n">
-        <v>188.217043387992</v>
+        <v>188.2170433879922</v>
       </c>
       <c r="N9" t="n">
-        <v>193.1985884691802</v>
+        <v>193.1985884691804</v>
       </c>
       <c r="O9" t="n">
-        <v>176.7389640413433</v>
+        <v>176.7389640413435</v>
       </c>
       <c r="P9" t="n">
-        <v>141.8486002254872</v>
+        <v>141.8486002254874</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.82203272916946</v>
+        <v>94.82203272916958</v>
       </c>
       <c r="R9" t="n">
-        <v>46.12083202701083</v>
+        <v>46.12083202701089</v>
       </c>
       <c r="S9" t="n">
-        <v>13.79780472127654</v>
+        <v>13.79780472127656</v>
       </c>
       <c r="T9" t="n">
-        <v>2.994139914723292</v>
+        <v>2.994139914723296</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04887061884749665</v>
+        <v>0.0488706188474967</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6227665746030717</v>
+        <v>0.6227665746030724</v>
       </c>
       <c r="H10" t="n">
-        <v>5.536960999652769</v>
+        <v>5.536960999652775</v>
       </c>
       <c r="I10" t="n">
-        <v>18.72828935260874</v>
+        <v>18.72828935260877</v>
       </c>
       <c r="J10" t="n">
-        <v>44.02959682443717</v>
+        <v>44.02959682443722</v>
       </c>
       <c r="K10" t="n">
-        <v>72.35415294024777</v>
+        <v>72.35415294024786</v>
       </c>
       <c r="L10" t="n">
-        <v>92.58840510053307</v>
+        <v>92.58840510053317</v>
       </c>
       <c r="M10" t="n">
-        <v>97.62149132618876</v>
+        <v>97.62149132618887</v>
       </c>
       <c r="N10" t="n">
-        <v>95.30027045721376</v>
+        <v>95.30027045721387</v>
       </c>
       <c r="O10" t="n">
-        <v>88.02522456298693</v>
+        <v>88.02522456298703</v>
       </c>
       <c r="P10" t="n">
-        <v>75.32078644108421</v>
+        <v>75.32078644108429</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.1482083515354</v>
+        <v>52.14820835153546</v>
       </c>
       <c r="R10" t="n">
-        <v>28.00184979987993</v>
+        <v>28.00184979987996</v>
       </c>
       <c r="S10" t="n">
-        <v>10.85312294103716</v>
+        <v>10.85312294103718</v>
       </c>
       <c r="T10" t="n">
-        <v>2.660911727849487</v>
+        <v>2.66091172784949</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03396908588744031</v>
+        <v>0.03396908588744035</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>127.8998415301111</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>234.0017634719808</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>104.8036895137028</v>
+        <v>222.1425621546525</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
         <v>185.9973484203803</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L5" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O5" t="n">
-        <v>166.2898937894759</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8696448668208</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>134.6170405889698</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>111.0745309547117</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516666</v>
+        <v>187.4887379037504</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833253</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P6" t="n">
-        <v>193.9407825031299</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.41420694903813</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178751</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082926</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507656</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919052</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025386</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>105.8852874652784</v>
+        <v>105.8852874652786</v>
       </c>
       <c r="K8" t="n">
-        <v>280.6590467162836</v>
+        <v>280.6590467162838</v>
       </c>
       <c r="L8" t="n">
-        <v>400.9870393071742</v>
+        <v>400.9870393071744</v>
       </c>
       <c r="M8" t="n">
-        <v>462.9496315166907</v>
+        <v>462.9496315166909</v>
       </c>
       <c r="N8" t="n">
-        <v>455.660845052748</v>
+        <v>455.6608450527483</v>
       </c>
       <c r="O8" t="n">
-        <v>384.6235363461606</v>
+        <v>384.6235363461608</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2123574616051</v>
+        <v>290.2123574616053</v>
       </c>
       <c r="Q8" t="n">
-        <v>139.9356167260021</v>
+        <v>139.9356167260023</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>69.43487538000382</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>246.5751029787718</v>
+        <v>246.575102978772</v>
       </c>
       <c r="L9" t="n">
-        <v>393.5752979266064</v>
+        <v>393.5752979266066</v>
       </c>
       <c r="M9" t="n">
-        <v>511.7880732159736</v>
+        <v>511.7880732159738</v>
       </c>
       <c r="N9" t="n">
-        <v>541.1992507294004</v>
+        <v>541.1992507294007</v>
       </c>
       <c r="O9" t="n">
-        <v>428.0050388736284</v>
+        <v>428.0050388736286</v>
       </c>
       <c r="P9" t="n">
-        <v>326.3369614510941</v>
+        <v>326.3369614510943</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.998760036464121</v>
+        <v>73.43363541646859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>50.08466111436492</v>
+        <v>50.08466111436501</v>
       </c>
       <c r="L10" t="n">
-        <v>120.1784303608492</v>
+        <v>120.1784303608493</v>
       </c>
       <c r="M10" t="n">
-        <v>137.2053682880293</v>
+        <v>137.2053682880295</v>
       </c>
       <c r="N10" t="n">
-        <v>139.4324428364424</v>
+        <v>139.4324428364425</v>
       </c>
       <c r="O10" t="n">
-        <v>112.6103524770266</v>
+        <v>112.6103524770267</v>
       </c>
       <c r="P10" t="n">
-        <v>72.5993457059777</v>
+        <v>72.59934570597778</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35726,25 +35726,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35981,7 +35981,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841781</v>
+        <v>30.90885570841791</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L25" t="n">
-        <v>268.6152724227808</v>
+        <v>268.6152724227809</v>
       </c>
       <c r="M25" t="n">
-        <v>292.7109267218248</v>
+        <v>292.7109267218249</v>
       </c>
       <c r="N25" t="n">
-        <v>291.6779633484559</v>
+        <v>291.677963348456</v>
       </c>
       <c r="O25" t="n">
         <v>254.6384370634552</v>
@@ -36534,7 +36534,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472704</v>
+        <v>57.62678551472715</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,19 +36680,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841782</v>
+        <v>30.90885570841791</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L28" t="n">
-        <v>268.6152724227808</v>
+        <v>268.6152724227809</v>
       </c>
       <c r="M28" t="n">
-        <v>292.7109267218248</v>
+        <v>292.7109267218249</v>
       </c>
       <c r="N28" t="n">
-        <v>291.6779633484559</v>
+        <v>291.677963348456</v>
       </c>
       <c r="O28" t="n">
         <v>254.6384370634552</v>
@@ -36771,7 +36771,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472704</v>
+        <v>57.62678551472715</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382559</v>
+        <v>384.9870895382562</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841781</v>
+        <v>30.90885570841791</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L31" t="n">
-        <v>268.6152724227808</v>
+        <v>268.6152724227809</v>
       </c>
       <c r="M31" t="n">
-        <v>292.7109267218248</v>
+        <v>292.7109267218249</v>
       </c>
       <c r="N31" t="n">
-        <v>291.6779633484559</v>
+        <v>291.677963348456</v>
       </c>
       <c r="O31" t="n">
         <v>254.6384370634552</v>
@@ -37008,7 +37008,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472704</v>
+        <v>57.62678551472715</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382562</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382559</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382559</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
